--- a/data/trans_orig/P23_1_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Provincia-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco actual o pasado (2016/2023) en 2016</t>
+          <t>Población según el consumo de tabaco actual o pasado en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5909,7 +5909,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco actual o pasado (2016/2023) en 2023</t>
+          <t>Población según el consumo de tabaco actual o pasado en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
